--- a/TestData/BEExcel.xlsx
+++ b/TestData/BEExcel.xlsx
@@ -1,84 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipsework\BhanuEmbroideries\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView windowWidth="18600" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>mobNo</t>
+  </si>
+  <si>
+    <t>ToastMsg</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
   <si>
     <t>Kenny</t>
   </si>
   <si>
-    <t>9999999999</t>
-  </si>
-  <si>
-    <t>Ranchi</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>ToastMsg</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>mobNo</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>18, Godadara Rd, near Silicon Flat, Smit Raw House, Pursottam nagar, Limbayat, Surat, Gujarat 394210</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>CustometType</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Bill</t>
+    <t>BILLING</t>
+  </si>
+  <si>
+    <t>test@admin.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@123</t>
+    </r>
   </si>
   <si>
     <t>Successfully created project!</t>
@@ -87,21 +102,194 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,24 +298,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -137,72 +505,367 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,120 +1123,106 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429"/>
+    <col min="8" max="8" width="55.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" ht="15" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" ht="15.75" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="8">
+        <v>8698706548</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>500</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>